--- a/DS Interview Questions.xlsx
+++ b/DS Interview Questions.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_1E181D056680926F8FF602291233BBB171EAB115" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7961973-065D-4FA1-AD2F-16707C364B58}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Questions</t>
   </si>
@@ -302,12 +303,17 @@
   <si>
     <t>Datatypes in pandas?</t>
   </si>
+  <si>
+    <t>The decision boundary for 1-NN algorithm is the union of the Voronoi cells of each training instance.
+As for SVM, when you use RBf kernel and if there is no regularization, the decision boundary will also be an approximation of the union of the Voronoi cells. So in this case, these methods are the same in terms of performance, but depending on the structure of the dataset, their complexities could be very much different. If the number of suport vectors in SVM is high, then both training and testing complexities of SVM will be much higher than 1-NN.
+The power of SVM, however, will become clear when you do regularization.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +494,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -534,7 +548,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -566,9 +580,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -600,6 +632,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -775,23 +825,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="102.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="106.5703125" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="9.1796875" style="5"/>
+    <col min="2" max="2" width="102.1796875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="106.54296875" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -802,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -811,7 +861,7 @@
       </c>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -820,7 +870,7 @@
       </c>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
@@ -829,7 +879,7 @@
       </c>
       <c r="C4" s="11"/>
     </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="5" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -838,7 +888,7 @@
       </c>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="127.5">
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="130" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -849,7 +899,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="7" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -858,7 +908,7 @@
       </c>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
@@ -867,7 +917,7 @@
       </c>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="9" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
@@ -876,7 +926,7 @@
       </c>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
@@ -885,7 +935,7 @@
       </c>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="11" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
@@ -894,7 +944,7 @@
       </c>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
@@ -903,7 +953,7 @@
       </c>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="13" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
@@ -912,7 +962,7 @@
       </c>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
@@ -921,7 +971,7 @@
       </c>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="15" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
@@ -930,7 +980,7 @@
       </c>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>19</v>
       </c>
@@ -939,7 +989,7 @@
       </c>
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="17" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>20</v>
       </c>
@@ -948,7 +998,7 @@
       </c>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="18" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>21</v>
       </c>
@@ -957,7 +1007,7 @@
       </c>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="19" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>22</v>
       </c>
@@ -966,7 +1016,7 @@
       </c>
       <c r="C19" s="11"/>
     </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="20" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
@@ -975,7 +1025,7 @@
       </c>
       <c r="C20" s="11"/>
     </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" ht="25.5">
+    <row r="21" spans="1:3" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>24</v>
       </c>
@@ -984,7 +1034,7 @@
       </c>
       <c r="C21" s="11"/>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
@@ -993,7 +1043,7 @@
       </c>
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="23" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>26</v>
       </c>
@@ -1002,7 +1052,7 @@
       </c>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="24" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>27</v>
       </c>
@@ -1011,7 +1061,7 @@
       </c>
       <c r="C24" s="11"/>
     </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="25" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>28</v>
       </c>
@@ -1020,7 +1070,7 @@
       </c>
       <c r="C25" s="11"/>
     </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="26" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>29</v>
       </c>
@@ -1029,16 +1079,18 @@
       </c>
       <c r="C26" s="11"/>
     </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="27" spans="1:3" s="4" customFormat="1" ht="104" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="11"/>
-    </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" ht="12.75">
+      <c r="C27" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>57</v>
       </c>
@@ -1047,7 +1099,7 @@
       </c>
       <c r="C28" s="11"/>
     </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="29" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>58</v>
       </c>
@@ -1056,7 +1108,7 @@
       </c>
       <c r="C29" s="11"/>
     </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="30" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>59</v>
       </c>
@@ -1065,7 +1117,7 @@
       </c>
       <c r="C30" s="11"/>
     </row>
-    <row r="31" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="31" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>60</v>
       </c>
@@ -1074,7 +1126,7 @@
       </c>
       <c r="C31" s="11"/>
     </row>
-    <row r="32" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="32" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>61</v>
       </c>
@@ -1083,7 +1135,7 @@
       </c>
       <c r="C32" s="11"/>
     </row>
-    <row r="33" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="33" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>62</v>
       </c>
@@ -1092,7 +1144,7 @@
       </c>
       <c r="C33" s="11"/>
     </row>
-    <row r="34" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="34" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>63</v>
       </c>
@@ -1101,7 +1153,7 @@
       </c>
       <c r="C34" s="11"/>
     </row>
-    <row r="35" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="35" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>64</v>
       </c>
@@ -1110,7 +1162,7 @@
       </c>
       <c r="C35" s="11"/>
     </row>
-    <row r="36" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="36" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>65</v>
       </c>
@@ -1119,7 +1171,7 @@
       </c>
       <c r="C36" s="11"/>
     </row>
-    <row r="37" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="37" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>66</v>
       </c>
@@ -1128,7 +1180,7 @@
       </c>
       <c r="C37" s="11"/>
     </row>
-    <row r="38" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="38" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>67</v>
       </c>
@@ -1137,7 +1189,7 @@
       </c>
       <c r="C38" s="11"/>
     </row>
-    <row r="39" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="39" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>68</v>
       </c>
@@ -1146,7 +1198,7 @@
       </c>
       <c r="C39" s="11"/>
     </row>
-    <row r="40" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="40" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>69</v>
       </c>
@@ -1155,77 +1207,77 @@
       </c>
       <c r="C40" s="11"/>
     </row>
-    <row r="41" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="41" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
     </row>
-    <row r="42" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="42" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>71</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="11"/>
     </row>
-    <row r="43" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="43" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>72</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="11"/>
     </row>
-    <row r="44" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="44" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="11"/>
     </row>
-    <row r="45" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="45" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
     </row>
-    <row r="46" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="46" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>75</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="11"/>
     </row>
-    <row r="47" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="47" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>76</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="11"/>
     </row>
-    <row r="48" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="48" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="11"/>
     </row>
-    <row r="49" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="49" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
     </row>
-    <row r="50" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="50" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="11"/>
     </row>
-    <row r="51" spans="1:3" s="4" customFormat="1" ht="12.75">
+    <row r="51" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>80</v>
       </c>
@@ -1239,24 +1291,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DS Interview Questions.xlsx
+++ b/DS Interview Questions.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1E181D056680926F8FF602291233BBB171EAB115" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7961973-065D-4FA1-AD2F-16707C364B58}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Questions</t>
   </si>
@@ -303,17 +302,12 @@
   <si>
     <t>Datatypes in pandas?</t>
   </si>
-  <si>
-    <t>The decision boundary for 1-NN algorithm is the union of the Voronoi cells of each training instance.
-As for SVM, when you use RBf kernel and if there is no regularization, the decision boundary will also be an approximation of the union of the Voronoi cells. So in this case, these methods are the same in terms of performance, but depending on the structure of the dataset, their complexities could be very much different. If the number of suport vectors in SVM is high, then both training and testing complexities of SVM will be much higher than 1-NN.
-The power of SVM, however, will become clear when you do regularization.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,14 +488,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -548,7 +534,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -580,27 +566,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -632,24 +600,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -825,23 +775,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="5"/>
-    <col min="2" max="2" width="102.1796875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="106.54296875" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="102.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="106.5703125" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -852,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -861,7 +811,7 @@
       </c>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -870,7 +820,7 @@
       </c>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
@@ -879,7 +829,7 @@
       </c>
       <c r="C4" s="11"/>
     </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -888,7 +838,7 @@
       </c>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="130" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="127.5">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -899,7 +849,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -908,7 +858,7 @@
       </c>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
@@ -917,7 +867,7 @@
       </c>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
@@ -926,7 +876,7 @@
       </c>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
@@ -935,7 +885,7 @@
       </c>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
@@ -944,7 +894,7 @@
       </c>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
@@ -953,7 +903,7 @@
       </c>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
@@ -962,7 +912,7 @@
       </c>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
@@ -971,7 +921,7 @@
       </c>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
@@ -980,7 +930,7 @@
       </c>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A16" s="9" t="s">
         <v>19</v>
       </c>
@@ -989,7 +939,7 @@
       </c>
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A17" s="9" t="s">
         <v>20</v>
       </c>
@@ -998,7 +948,7 @@
       </c>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A18" s="9" t="s">
         <v>21</v>
       </c>
@@ -1007,7 +957,7 @@
       </c>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A19" s="9" t="s">
         <v>22</v>
       </c>
@@ -1016,7 +966,7 @@
       </c>
       <c r="C19" s="11"/>
     </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
@@ -1025,7 +975,7 @@
       </c>
       <c r="C20" s="11"/>
     </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" s="4" customFormat="1" ht="25.5">
       <c r="A21" s="9" t="s">
         <v>24</v>
       </c>
@@ -1034,7 +984,7 @@
       </c>
       <c r="C21" s="11"/>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
@@ -1043,7 +993,7 @@
       </c>
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A23" s="9" t="s">
         <v>26</v>
       </c>
@@ -1052,7 +1002,7 @@
       </c>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A24" s="9" t="s">
         <v>27</v>
       </c>
@@ -1061,7 +1011,7 @@
       </c>
       <c r="C24" s="11"/>
     </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A25" s="9" t="s">
         <v>28</v>
       </c>
@@ -1070,7 +1020,7 @@
       </c>
       <c r="C25" s="11"/>
     </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A26" s="9" t="s">
         <v>29</v>
       </c>
@@ -1079,18 +1029,16 @@
       </c>
       <c r="C26" s="11"/>
     </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" ht="104" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A27" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="C27" s="11"/>
+    </row>
+    <row r="28" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A28" s="9" t="s">
         <v>57</v>
       </c>
@@ -1099,7 +1047,7 @@
       </c>
       <c r="C28" s="11"/>
     </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A29" s="9" t="s">
         <v>58</v>
       </c>
@@ -1108,7 +1056,7 @@
       </c>
       <c r="C29" s="11"/>
     </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A30" s="9" t="s">
         <v>59</v>
       </c>
@@ -1117,7 +1065,7 @@
       </c>
       <c r="C30" s="11"/>
     </row>
-    <row r="31" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A31" s="9" t="s">
         <v>60</v>
       </c>
@@ -1126,7 +1074,7 @@
       </c>
       <c r="C31" s="11"/>
     </row>
-    <row r="32" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A32" s="9" t="s">
         <v>61</v>
       </c>
@@ -1135,7 +1083,7 @@
       </c>
       <c r="C32" s="11"/>
     </row>
-    <row r="33" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A33" s="9" t="s">
         <v>62</v>
       </c>
@@ -1144,7 +1092,7 @@
       </c>
       <c r="C33" s="11"/>
     </row>
-    <row r="34" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A34" s="9" t="s">
         <v>63</v>
       </c>
@@ -1153,7 +1101,7 @@
       </c>
       <c r="C34" s="11"/>
     </row>
-    <row r="35" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A35" s="9" t="s">
         <v>64</v>
       </c>
@@ -1162,7 +1110,7 @@
       </c>
       <c r="C35" s="11"/>
     </row>
-    <row r="36" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A36" s="9" t="s">
         <v>65</v>
       </c>
@@ -1171,7 +1119,7 @@
       </c>
       <c r="C36" s="11"/>
     </row>
-    <row r="37" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A37" s="9" t="s">
         <v>66</v>
       </c>
@@ -1180,7 +1128,7 @@
       </c>
       <c r="C37" s="11"/>
     </row>
-    <row r="38" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A38" s="9" t="s">
         <v>67</v>
       </c>
@@ -1189,7 +1137,7 @@
       </c>
       <c r="C38" s="11"/>
     </row>
-    <row r="39" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A39" s="9" t="s">
         <v>68</v>
       </c>
@@ -1198,7 +1146,7 @@
       </c>
       <c r="C39" s="11"/>
     </row>
-    <row r="40" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A40" s="9" t="s">
         <v>69</v>
       </c>
@@ -1207,77 +1155,77 @@
       </c>
       <c r="C40" s="11"/>
     </row>
-    <row r="41" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A41" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
     </row>
-    <row r="42" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A42" s="9" t="s">
         <v>71</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="11"/>
     </row>
-    <row r="43" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A43" s="9" t="s">
         <v>72</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="11"/>
     </row>
-    <row r="44" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A44" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="11"/>
     </row>
-    <row r="45" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A45" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
     </row>
-    <row r="46" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A46" s="9" t="s">
         <v>75</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="11"/>
     </row>
-    <row r="47" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A47" s="9" t="s">
         <v>76</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="11"/>
     </row>
-    <row r="48" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A48" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="11"/>
     </row>
-    <row r="49" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A49" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
     </row>
-    <row r="50" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A50" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="11"/>
     </row>
-    <row r="51" spans="1:3" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" s="4" customFormat="1" ht="12.75">
       <c r="A51" s="9" t="s">
         <v>80</v>
       </c>
@@ -1291,24 +1239,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
